--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2287902887588993</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.124763316851014</v>
+        <v>-2.148946061763398</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05735911316684826</v>
+        <v>-0.05741522586910908</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2145387211682065</v>
+        <v>-0.2229025634084527</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2144998968557406</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.274903830322023</v>
+        <v>-2.29648099410334</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05737192150105997</v>
+        <v>-0.04663243822488017</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2172882435789868</v>
+        <v>-0.2290035999379635</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2024345481743419</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.516162833375132</v>
+        <v>-2.53686171138193</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06698915073202336</v>
+        <v>-0.05361663989432218</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2648321702521746</v>
+        <v>-0.2775532858071089</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.188878513001889</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.733140284366223</v>
+        <v>-2.762149331593714</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02276380246102167</v>
+        <v>-0.006424637451617945</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2909239668827798</v>
+        <v>-0.2983839066800853</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.167835589554027</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.908299743997437</v>
+        <v>-2.961846509971179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03435892844049444</v>
+        <v>0.05588912832970089</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3116393127478508</v>
+        <v>-0.3252374942359488</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1402133248511813</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.898783151678137</v>
+        <v>-2.965832341593728</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2319872558824304</v>
+        <v>0.2645094462079904</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3386758765067387</v>
+        <v>-0.351341489280089</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1092398515995812</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.893792170780308</v>
+        <v>-2.991158382814676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3744848533531094</v>
+        <v>0.4102091272315967</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3576133035990892</v>
+        <v>-0.3882453497474069</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07661178099402015</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.626663992143607</v>
+        <v>-2.744249989493189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.550498201931771</v>
+        <v>0.6202157948081345</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3677013915925021</v>
+        <v>-0.4041343932973706</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04167492849486405</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.263856337104086</v>
+        <v>-2.387428705895949</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6367507443547744</v>
+        <v>0.7166997565835865</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3573833635039552</v>
+        <v>-0.393810875922733</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.002428445069463804</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.870921040315917</v>
+        <v>-2.019474540186027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.710351092259316</v>
+        <v>0.8054438249711057</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3154982808696358</v>
+        <v>-0.3534469354562232</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04320097645968529</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.360111253698065</v>
+        <v>-1.555072398020582</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6570177985224356</v>
+        <v>0.7655489135050153</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.26424786624385</v>
+        <v>-0.3061067222890692</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1004416038616503</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8863376803343852</v>
+        <v>-1.117522623569646</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5063564127934838</v>
+        <v>0.6270420270222987</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1814871196952293</v>
+        <v>-0.2341720677527265</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1747933069357908</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3448549828828734</v>
+        <v>-0.6301569679246356</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2353052243639399</v>
+        <v>0.3597503896442298</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06265383456169815</v>
+        <v>-0.1159249163895503</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2665855704772088</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1895581240044518</v>
+        <v>-0.1319926666978011</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07412278296726864</v>
+        <v>0.04184570474757686</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06558381748661127</v>
+        <v>0.002555834592820461</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3706483180679201</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7481405575492722</v>
+        <v>0.3881653741325684</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4295930922655113</v>
+        <v>-0.3162997166388828</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1633480027625575</v>
+        <v>0.08363441991497005</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4790059600293594</v>
       </c>
       <c r="E17" t="n">
-        <v>1.221668332880222</v>
+        <v>0.8308281136166832</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8252614436061881</v>
+        <v>-0.7249551089495561</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3086067111368749</v>
+        <v>0.2206445610569468</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5906150921828188</v>
       </c>
       <c r="E18" t="n">
-        <v>1.789514241663492</v>
+        <v>1.395248097958659</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.183219009424209</v>
+        <v>-1.074009662649086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4447861403171208</v>
+        <v>0.3379365766403356</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7077963507009775</v>
       </c>
       <c r="E19" t="n">
-        <v>2.18896349127933</v>
+        <v>1.760401507920954</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.54682017126418</v>
+        <v>-1.427502609113311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6050964711522269</v>
+        <v>0.4895738354520842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8305610183211509</v>
       </c>
       <c r="E20" t="n">
-        <v>2.490210632573317</v>
+        <v>2.05040476153909</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.845345846498517</v>
+        <v>-1.707044503283865</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7422566527806836</v>
+        <v>0.6203890122803309</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.95727439119971</v>
       </c>
       <c r="E21" t="n">
-        <v>2.836702909509829</v>
+        <v>2.378741529690842</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.253600520924567</v>
+        <v>-2.111978159625022</v>
       </c>
       <c r="G21" t="n">
-        <v>0.905221968321674</v>
+        <v>0.7720030941063633</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.08273039356529</v>
       </c>
       <c r="E22" t="n">
-        <v>3.104877712027828</v>
+        <v>2.633598104311372</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.559511725633646</v>
+        <v>-2.423155419457144</v>
       </c>
       <c r="G22" t="n">
-        <v>1.004443254094371</v>
+        <v>0.8614735780198893</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.204361251189809</v>
       </c>
       <c r="E23" t="n">
-        <v>3.347987214414191</v>
+        <v>2.897846237512468</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.924061314125961</v>
+        <v>-2.791922609429171</v>
       </c>
       <c r="G23" t="n">
-        <v>1.158986784930824</v>
+        <v>1.015210183801005</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.319708769784859</v>
       </c>
       <c r="E24" t="n">
-        <v>3.522947839904785</v>
+        <v>3.080112492869151</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.174441070979159</v>
+        <v>-3.033362453962935</v>
       </c>
       <c r="G24" t="n">
-        <v>1.287987447745746</v>
+        <v>1.140351878494141</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.424478171427678</v>
       </c>
       <c r="E25" t="n">
-        <v>3.684724420046793</v>
+        <v>3.260991788606908</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.424209687314256</v>
+        <v>-3.301347876110805</v>
       </c>
       <c r="G25" t="n">
-        <v>1.373706919497271</v>
+        <v>1.240065980173651</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.516456868866083</v>
       </c>
       <c r="E26" t="n">
-        <v>3.728226402395172</v>
+        <v>3.314768494675784</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.618636541123942</v>
+        <v>-3.502661954202329</v>
       </c>
       <c r="G26" t="n">
-        <v>1.435340013803339</v>
+        <v>1.302598097557246</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.592410162254026</v>
       </c>
       <c r="E27" t="n">
-        <v>3.784727014206405</v>
+        <v>3.392071061088187</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.839181418153333</v>
+        <v>-3.733145793619668</v>
       </c>
       <c r="G27" t="n">
-        <v>1.51712732695187</v>
+        <v>1.391369002454542</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.651086247395412</v>
       </c>
       <c r="E28" t="n">
-        <v>3.769632697298244</v>
+        <v>3.396873576496901</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.991808883183782</v>
+        <v>-3.922181253607239</v>
       </c>
       <c r="G28" t="n">
-        <v>1.562685961822243</v>
+        <v>1.446976080474339</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.691664777650539</v>
       </c>
       <c r="E29" t="n">
-        <v>3.753230710459135</v>
+        <v>3.409211051946161</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.071928368241745</v>
+        <v>-4.02145041815306</v>
       </c>
       <c r="G29" t="n">
-        <v>1.634718203666865</v>
+        <v>1.529107388884555</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.713098299965568</v>
       </c>
       <c r="E30" t="n">
-        <v>3.703240391951511</v>
+        <v>3.383895684337056</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.090960942959669</v>
+        <v>-4.06125536631933</v>
       </c>
       <c r="G30" t="n">
-        <v>1.679871241287201</v>
+        <v>1.58314880052714</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.717187590160109</v>
       </c>
       <c r="E31" t="n">
-        <v>3.67511085033989</v>
+        <v>3.386004790037251</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.132123269592041</v>
+        <v>-4.1219467431005</v>
       </c>
       <c r="G31" t="n">
-        <v>1.641789014072406</v>
+        <v>1.55854155082374</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.705019822897763</v>
       </c>
       <c r="E32" t="n">
-        <v>3.58365690438558</v>
+        <v>3.316669007504531</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.103221568403658</v>
+        <v>-4.105905524341687</v>
       </c>
       <c r="G32" t="n">
-        <v>1.61973916176661</v>
+        <v>1.541644918315789</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.679347637201605</v>
       </c>
       <c r="E33" t="n">
-        <v>3.444547416274236</v>
+        <v>3.204777839513747</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.045477938253212</v>
+        <v>-4.056571785442583</v>
       </c>
       <c r="G33" t="n">
-        <v>1.532978555419875</v>
+        <v>1.470503160659218</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.643768019673569</v>
       </c>
       <c r="E34" t="n">
-        <v>3.377293902931934</v>
+        <v>3.167649528237385</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.899219264929366</v>
+        <v>-3.907945095091262</v>
       </c>
       <c r="G34" t="n">
-        <v>1.457422191905003</v>
+        <v>1.397682291379561</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.599968860754887</v>
       </c>
       <c r="E35" t="n">
-        <v>3.259402335323303</v>
+        <v>3.079328134878852</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.795573004646862</v>
+        <v>-3.807275857631965</v>
       </c>
       <c r="G35" t="n">
-        <v>1.42477679760274</v>
+        <v>1.375666594631663</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.550815514171051</v>
       </c>
       <c r="E36" t="n">
-        <v>3.117596997820733</v>
+        <v>2.963384653911754</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.672623669826296</v>
+        <v>-3.693817803422615</v>
       </c>
       <c r="G36" t="n">
-        <v>1.360291714212198</v>
+        <v>1.308381975334847</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.496521456526348</v>
       </c>
       <c r="E37" t="n">
-        <v>2.992674264650549</v>
+        <v>2.863762650254433</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.564664660438506</v>
+        <v>-3.579036831265398</v>
       </c>
       <c r="G37" t="n">
-        <v>1.271888591482981</v>
+        <v>1.219649495440186</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.436461735138393</v>
       </c>
       <c r="E38" t="n">
-        <v>2.889569613928997</v>
+        <v>2.791995723904196</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.415762590901634</v>
+        <v>-3.43295107045341</v>
       </c>
       <c r="G38" t="n">
-        <v>1.205551178997155</v>
+        <v>1.153066284921631</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.371918645471297</v>
       </c>
       <c r="E39" t="n">
-        <v>2.690481746307603</v>
+        <v>2.63245999232856</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.225856164187667</v>
+        <v>-3.234700318960853</v>
       </c>
       <c r="G39" t="n">
-        <v>1.121463854976607</v>
+        <v>1.077009176531148</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.303043871347976</v>
       </c>
       <c r="E40" t="n">
-        <v>2.564725861492981</v>
+        <v>2.541669640070551</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.094939130606404</v>
+        <v>-3.103173059742502</v>
       </c>
       <c r="G40" t="n">
-        <v>1.049699978229754</v>
+        <v>1.00813083450599</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.232038839730191</v>
       </c>
       <c r="E41" t="n">
-        <v>2.395486291950284</v>
+        <v>2.386905927869792</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.934426306106617</v>
+        <v>-2.947345645881494</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9401167500797839</v>
+        <v>0.9086600911765028</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.159506365789991</v>
       </c>
       <c r="E42" t="n">
-        <v>2.1500664100404</v>
+        <v>2.145878694673848</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.874444267072506</v>
+        <v>-2.895793930441395</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8786257672913982</v>
+        <v>0.8468940341629038</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.085908007224568</v>
       </c>
       <c r="E43" t="n">
-        <v>1.930083879874971</v>
+        <v>1.944520702293597</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.76819303557961</v>
+        <v>-2.79668487007322</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8020868215662844</v>
+        <v>0.7709534206216798</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.012269784123964</v>
       </c>
       <c r="E44" t="n">
-        <v>1.673219446386587</v>
+        <v>1.692011712357871</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.654671549619879</v>
+        <v>-2.679073865975891</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7822058471870047</v>
+        <v>0.7609641397779001</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9378922919029405</v>
       </c>
       <c r="E45" t="n">
-        <v>1.461403144162137</v>
+        <v>1.480726041122193</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.613834310708212</v>
+        <v>-2.650203270742022</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7019610234299697</v>
+        <v>0.6876309371297741</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8641466783731914</v>
       </c>
       <c r="E46" t="n">
-        <v>1.225209532329422</v>
+        <v>1.247552146560057</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.518935532771629</v>
+        <v>-2.558592575173787</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6006440502119661</v>
+        <v>0.5911378265441708</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7910687302785293</v>
       </c>
       <c r="E47" t="n">
-        <v>1.050690489408793</v>
+        <v>1.067325465946419</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.465282030679455</v>
+        <v>-2.508940762641758</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5240996152007615</v>
+        <v>0.5199015311827047</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7189775109523495</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8607581410660639</v>
+        <v>0.879461358618543</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.388412507947544</v>
+        <v>-2.439564115423697</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4396030344061159</v>
+        <v>0.4313471481256541</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6487158882923066</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6915527270812641</v>
+        <v>0.713040842443775</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.286412423571583</v>
+        <v>-2.339637151428002</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3506637914020373</v>
+        <v>0.3510230346806419</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5797223512428735</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5283757690654421</v>
+        <v>0.5556983856217249</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.232147780961308</v>
+        <v>-2.283335373757389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3111842359168123</v>
+        <v>0.3084566706503949</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5129194387185371</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3348979518287767</v>
+        <v>0.3631531370998073</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.173580147976575</v>
+        <v>-2.224122444696657</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2229732382007709</v>
+        <v>0.2205420943832531</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4486107594923968</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2156529702384407</v>
+        <v>0.2393044742413769</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.115571812252421</v>
+        <v>-2.169385113561902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1822750612034032</v>
+        <v>0.1791967915478558</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3876233857720239</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03036394800779467</v>
+        <v>0.04863778140384323</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.049016658084996</v>
+        <v>-2.094257524282784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1372580358939826</v>
+        <v>0.1388090641749529</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3307944425196291</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1696943034103056</v>
+        <v>-0.1600185217943744</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.938624065196981</v>
+        <v>-1.972021491693675</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07274916559704746</v>
+        <v>0.07834518780621089</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.277957979405527</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2816672007717745</v>
+        <v>-0.2680476720599904</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.906083577251119</v>
+        <v>-1.933229926731822</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04764666030412763</v>
+        <v>0.04717336185897114</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2300745303397136</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4268063646934494</v>
+        <v>-0.4126464462620665</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.892309738608118</v>
+        <v>-1.910749470428242</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06430793943703889</v>
+        <v>-0.06454885810435437</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1871808396121445</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5428559718583024</v>
+        <v>-0.5241417757336417</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.80941724919332</v>
+        <v>-1.820424487646592</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08474821107689655</v>
+        <v>-0.08725437513765433</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1491469664320196</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7192865061798596</v>
+        <v>-0.7185704593053573</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.771031891402181</v>
+        <v>-1.781044349231677</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1363584789019637</v>
+        <v>-0.1360901138041946</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.115132690790538</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8442702314177182</v>
+        <v>-0.8337985033186307</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.743899570097043</v>
+        <v>-1.756873192812151</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2057082896102481</v>
+        <v>-0.2115519396141713</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08335766987126991</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9694204650003289</v>
+        <v>-0.9503952093305267</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.701732704110066</v>
+        <v>-1.695650575121534</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2309260699110734</v>
+        <v>-0.2376345874346252</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.05304371430595404</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.151885554497631</v>
+        <v>-1.13761463050308</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.630332950007231</v>
+        <v>-1.624741807163482</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2799185581915379</v>
+        <v>-0.2801881431306605</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02379295630319105</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.271192747996996</v>
+        <v>-1.258241082426251</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.560210369801507</v>
+        <v>-1.542942295601416</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3274881015331492</v>
+        <v>-0.3294087417442288</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.003741168993664414</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.361872094691837</v>
+        <v>-1.348215360818771</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.580862283916197</v>
+        <v>-1.560647073006059</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3970873697982235</v>
+        <v>-0.3971013979737887</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02870229830251561</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.512772569326074</v>
+        <v>-1.498925540201862</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.522763070011207</v>
+        <v>-1.4957637114136</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4398214620145762</v>
+        <v>-0.4354891954476348</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.05035396071160841</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.704947595997205</v>
+        <v>-1.706029595277756</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.484730246371228</v>
+        <v>-1.453833494649202</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4642902597243548</v>
+        <v>-0.4697423406538057</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06795843337216113</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.834423387019313</v>
+        <v>-1.824022409718729</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.460993963394224</v>
+        <v>-1.422925154434317</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.523976487230243</v>
+        <v>-0.5215343648405438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.08133839071529803</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.002123516773898</v>
+        <v>-1.991877459325208</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.435222985039588</v>
+        <v>-1.394060658407215</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5480610349136703</v>
+        <v>-0.5523640252881279</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.09072822191002815</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.160707772093807</v>
+        <v>-2.159132346985767</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.402999655845635</v>
+        <v>-1.348311728285697</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6038370609609267</v>
+        <v>-0.6048294019019959</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.09705699806492114</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.235275454191672</v>
+        <v>-2.238307369875786</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.410118649984638</v>
+        <v>-1.348988740236887</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6389983780547756</v>
+        <v>-0.6516548420179744</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1016929142433552</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.342083543262438</v>
+        <v>-2.344062125937809</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.350650164160349</v>
+        <v>-1.28528496523326</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.653202820695561</v>
+        <v>-0.6579522730053982</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1057232129155365</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.444644144740331</v>
+        <v>-2.437003058502031</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.314814274798017</v>
+        <v>-1.226670368356418</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7073180327400325</v>
+        <v>-0.7174884600248064</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1098395591222539</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.460641144250079</v>
+        <v>-2.437264714472356</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.309410377602029</v>
+        <v>-1.227429719598969</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7542654569913607</v>
+        <v>-0.7676343083050015</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1142590166300583</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.458563144504399</v>
+        <v>-2.436422414017767</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.25333854002655</v>
+        <v>-1.157878635067358</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7584745195815991</v>
+        <v>-0.761888245609358</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1187818221318202</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.472948123665502</v>
+        <v>-2.442726554132635</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.29328407490881</v>
+        <v>-1.192194602103234</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7874323334722434</v>
+        <v>-0.7953057994883841</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1225611656793581</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.381250209440491</v>
+        <v>-2.334285707410214</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.226521547711291</v>
+        <v>-1.109463741667774</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7722776344170844</v>
+        <v>-0.7739250301649809</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1243549882823229</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.272756299619193</v>
+        <v>-2.223839441502646</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.225468824623224</v>
+        <v>-1.121209594060588</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.761583285270984</v>
+        <v>-0.7715420700809262</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1226642576845143</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.131721901852033</v>
+        <v>-2.073167077201512</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.131082380055109</v>
+        <v>-1.014151437512355</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7336995416920929</v>
+        <v>-0.7409380802837389</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1166838782577864</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.948568211910682</v>
+        <v>-1.890268334103042</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.110483529039296</v>
+        <v>-0.9965338787644871</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7059524203447936</v>
+        <v>-0.7124858906341187</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1060385150647374</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.740838988141121</v>
+        <v>-1.67480653599367</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.048228315642945</v>
+        <v>-0.9346147316610243</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6721841620766373</v>
+        <v>-0.6705855599828807</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.09079521203591391</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.539839019198122</v>
+        <v>-1.482245429534157</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.9398136955096247</v>
+        <v>-0.8214311417562103</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6243877282432758</v>
+        <v>-0.6222456868265366</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07180675296069738</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.269543522487069</v>
+        <v>-1.203895930286645</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.846328103781066</v>
+        <v>-0.7220317591459026</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5715283428722285</v>
+        <v>-0.5581222863973063</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05006569032230637</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9867434320613272</v>
+        <v>-0.9050280895526527</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.8227089255739976</v>
+        <v>-0.6963833748472933</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5117262304377582</v>
+        <v>-0.4972174373792754</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02730683973067075</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.760077391120093</v>
+        <v>-0.6920309808980192</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.688448306842801</v>
+        <v>-0.5582546391841606</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4563850778330232</v>
+        <v>-0.4368017447439966</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.005003410729601669</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4912768099877494</v>
+        <v>-0.4247454427267177</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5877546725564339</v>
+        <v>-0.4597658681442377</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4078634483150082</v>
+        <v>-0.3881184862466434</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01557398224874039</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2365696659330231</v>
+        <v>-0.176554081261691</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4691952418067627</v>
+        <v>-0.3341978388980545</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3739719860701489</v>
+        <v>-0.3604140593467163</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03340443673822644</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003885461668131227</v>
+        <v>0.05862767216829967</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4068034061788201</v>
+        <v>-0.2753795285151788</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3288903091689929</v>
+        <v>-0.3095881495119471</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04765602543375879</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2156236940459568</v>
+        <v>0.2652291526065531</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.298474174940244</v>
+        <v>-0.1788669004679196</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2638691055035894</v>
+        <v>-0.253876775056426</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05671772787333486</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4274997684967274</v>
+        <v>0.4675892446587005</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2386159498035129</v>
+        <v>-0.1320188932869013</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1812486407106208</v>
+        <v>-0.1758002193052304</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05930848890645732</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6180786327568093</v>
+        <v>0.6618306825826545</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.1035825615748766</v>
+        <v>-0.008567288789033872</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1629595592976535</v>
+        <v>-0.1575093081302329</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05519981497675364</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8260896398790275</v>
+        <v>0.8586947794166252</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.03794350826392733</v>
+        <v>0.04664456063223058</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0976724302171879</v>
+        <v>-0.09723694685398979</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04447224806679506</v>
       </c>
       <c r="E91" t="n">
-        <v>1.021048344518837</v>
+        <v>1.050050072698207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06326794867699889</v>
+        <v>0.1399477860784415</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07822266975636909</v>
+        <v>-0.08192183866084606</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02791607051170713</v>
       </c>
       <c r="E92" t="n">
-        <v>1.118593568271831</v>
+        <v>1.141497919445751</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1996901262865905</v>
+        <v>0.2713356784221546</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07623005890543318</v>
+        <v>-0.07784634869881553</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.006919436527670852</v>
       </c>
       <c r="E93" t="n">
-        <v>1.251652033349157</v>
+        <v>1.279885261475824</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3151535996810886</v>
+        <v>0.3660118353117254</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07013634142404333</v>
+        <v>-0.07469671832408856</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01714011397002334</v>
       </c>
       <c r="E94" t="n">
-        <v>1.345651788208214</v>
+        <v>1.362889366374468</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4006211741931172</v>
+        <v>0.4416413893078079</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1035490159376554</v>
+        <v>-0.1160499501282836</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04272971015187658</v>
       </c>
       <c r="E95" t="n">
-        <v>1.352582316858102</v>
+        <v>1.357681253715716</v>
       </c>
       <c r="F95" t="n">
-        <v>0.479842551054569</v>
+        <v>0.5176606826163324</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1204828536068885</v>
+        <v>-0.1317578472372531</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06774172907089067</v>
       </c>
       <c r="E96" t="n">
-        <v>1.336290115740808</v>
+        <v>1.342707091180875</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5655443351064688</v>
+        <v>0.595347499055086</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09856535408794706</v>
+        <v>-0.1079959475918255</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09057474877712336</v>
       </c>
       <c r="E97" t="n">
-        <v>1.30927977857102</v>
+        <v>1.311143086238486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5809991151345879</v>
+        <v>0.6107583647944791</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1010690784659978</v>
+        <v>-0.1026237662710286</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1125961384420969</v>
       </c>
       <c r="E98" t="n">
-        <v>1.253179274723734</v>
+        <v>1.248409695031564</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6023445090587397</v>
+        <v>0.6235264442415229</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1439647996616888</v>
+        <v>-0.1494065119396349</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.134440589665607</v>
       </c>
       <c r="E99" t="n">
-        <v>1.151647609427515</v>
+        <v>1.145539253849883</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5663244236520296</v>
+        <v>0.5893007454658057</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1697498061918896</v>
+        <v>-0.1778599214306086</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1610015190134441</v>
       </c>
       <c r="E100" t="n">
-        <v>1.121279049011553</v>
+        <v>1.121981677631166</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5503530408107049</v>
+        <v>0.561508489988427</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1823525971355348</v>
+        <v>-0.1892904448335439</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1904742799819795</v>
       </c>
       <c r="E101" t="n">
-        <v>1.076493183638619</v>
+        <v>1.082036752669582</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5222485059468313</v>
+        <v>0.5384723959483295</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2131340738496558</v>
+        <v>-0.2189228309926716</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2274755359269167</v>
       </c>
       <c r="E102" t="n">
-        <v>1.031648155960042</v>
+        <v>1.038378630627957</v>
       </c>
       <c r="F102" t="n">
-        <v>0.519486785122516</v>
+        <v>0.5378630851922582</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2130578337650622</v>
+        <v>-0.2151705989893175</v>
       </c>
     </row>
   </sheetData>
